--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E020DC13-5F47-4F2F-852C-BAB53BD4845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955484DC-5D43-453E-8E39-42232E6463F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>DiaChi</t>
   </si>
   <si>
-    <t>MaBangGia</t>
-  </si>
-  <si>
     <t>MaTram</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>TenNganHang</t>
+  </si>
+  <si>
+    <t>MaChiTietBangGia</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -490,52 +490,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955484DC-5D43-453E-8E39-42232E6463F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46F0FA-0FFB-4A8E-A8D6-25404875B8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>TenNganHang</t>
   </si>
   <si>
-    <t>MaChiTietBangGia</t>
+    <t>MaBangGia</t>
   </si>
 </sst>
 </file>
@@ -453,16 +453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F681D5-BC4C-4C4A-BEB4-B0FC9E25C460}">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
